--- a/data/Reported_Model_Dataset_Stats.xlsx
+++ b/data/Reported_Model_Dataset_Stats.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" state="visible" r:id="rId1"/>
@@ -1569,13 +1569,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="17.28125"/>
+    <col customWidth="1" min="2" max="2" width="28.57421875"/>
     <col customWidth="1" min="3" max="3" width="22.8515625"/>
     <col customWidth="1" min="4" max="4" width="15.00390625"/>
     <col customWidth="1" min="5" max="5" width="20.28125"/>
@@ -1927,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>10500</v>
+        <v>105000</v>
       </c>
       <c r="G10">
         <v>70000</v>
